--- a/WidgetSizes.xlsx
+++ b/WidgetSizes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Documents/GitHub/Transparency/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21194B17-4095-524C-82F7-2615FEAFD146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170A84C2-E6E5-5147-9F15-A8D16AE058C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18860" yWindow="4980" windowWidth="20360" windowHeight="17440" xr2:uid="{CFDEA34E-4ACB-A44B-ABA9-F104A4CF8651}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -288,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,9 +310,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -322,22 +319,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869A3B0C-F175-404E-8267-F1D4725AECD3}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:M10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -708,91 +698,89 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="12">
         <v>393</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>852</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2">
         <v>158</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2">
         <v>338.67</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="11">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2">
         <v>27</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2">
         <f t="shared" ref="J2:J3" si="0">L2-I2-E2</f>
         <v>22.669999999999987</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2">
         <f t="shared" ref="K2:K3" si="1">M2-H2-E2</f>
         <v>38</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2">
         <v>207.67</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="10">
         <v>286</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2">
         <f>M2+K2+E2</f>
         <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="12">
         <v>430</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>932</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>170</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3">
         <v>367.67</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11">
+      <c r="H3">
         <v>94</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3">
         <v>31</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3">
         <f t="shared" si="0"/>
         <v>27.669999999999987</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3">
         <v>228.67</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>306</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3">
         <f t="shared" ref="N3:N13" si="2">M3+K3+E3</f>
         <v>518</v>
       </c>
@@ -801,178 +789,174 @@
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>375</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>812</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4">
         <v>149</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4">
         <v>316</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
+      <c r="H4">
         <v>74</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4">
         <v>22</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4">
         <f t="shared" ref="J4:J13" si="3">L4-I4-E4</f>
         <v>18</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4">
         <f t="shared" ref="K4:K13" si="4">M4-H4-E4</f>
         <v>33.5</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4">
         <v>189</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <v>256.5</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4">
         <f t="shared" si="2"/>
         <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>390</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>844</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5">
         <v>158</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5">
         <v>338</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
+      <c r="H5">
         <v>77</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5">
         <v>26</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5">
         <v>206</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>273</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5">
         <f t="shared" si="2"/>
         <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>428</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>926</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6">
         <v>170</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6">
         <v>364</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="H6">
         <v>82</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6">
         <v>32</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6">
         <v>226</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>294</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>375</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>812</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <v>155</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7">
         <v>329</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
+      <c r="H7">
         <v>77</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7">
         <v>23</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7">
         <v>197</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="10">
         <v>267</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7">
         <f t="shared" si="2"/>
         <v>457</v>
       </c>
@@ -981,43 +965,42 @@
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>375</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>812</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8">
         <v>155</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8">
         <v>329</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="H8">
         <v>71</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8">
         <v>23</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8">
         <v>197</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="10">
         <v>261</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8">
         <f t="shared" si="2"/>
         <v>451</v>
       </c>
@@ -1026,223 +1009,219 @@
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>414</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>896</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>169</v>
       </c>
-      <c r="F9" s="7">
-        <v>360</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="11">
-        <v>76</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="F9">
+        <v>379</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9">
         <v>27</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9">
         <v>218</v>
       </c>
-      <c r="M9" s="12">
-        <v>286</v>
-      </c>
-      <c r="N9" s="13">
+      <c r="M9" s="10">
+        <v>290</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="2"/>
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>414</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>896</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>169</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10">
         <v>360</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="11">
+      <c r="H10">
         <v>76</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10">
         <v>27</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10">
         <v>218</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <v>286</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10">
         <f t="shared" si="2"/>
         <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>414</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>736</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>159</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11">
         <v>348</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="11">
+      <c r="H11">
         <v>38</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11">
         <v>33</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11">
         <v>224</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <v>232</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11">
         <f t="shared" si="2"/>
         <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>375</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>667</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>148</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12">
         <v>322</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11">
+      <c r="H12">
         <v>30</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12">
         <v>28</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12">
         <v>200</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="10">
         <v>206</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12">
         <f t="shared" si="2"/>
         <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>375</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>667</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>2</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>148</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>322</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="14">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
         <v>30</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="9">
         <v>28</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="9">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="9">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="9">
         <v>200</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="11">
         <v>206</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13">
         <f t="shared" si="2"/>
         <v>382</v>
       </c>

--- a/WidgetSizes.xlsx
+++ b/WidgetSizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Documents/GitHub/Transparency/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170A84C2-E6E5-5147-9F15-A8D16AE058C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA1AD5-9ED8-8243-9ED3-A54A0ACD00BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18860" yWindow="4980" windowWidth="20360" windowHeight="17440" xr2:uid="{CFDEA34E-4ACB-A44B-ABA9-F104A4CF8651}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>3y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XR 360*379</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869A3B0C-F175-404E-8267-F1D4725AECD3}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1022,7 +1026,7 @@
         <v>169</v>
       </c>
       <c r="F9">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="H9">
         <v>80</v>
@@ -1227,6 +1231,9 @@
       </c>
     </row>
     <row r="16" spans="1:14">
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
       <c r="K16" t="s">
         <v>23</v>
       </c>
